--- a/Processed_Data/Honolulu Harbor Pier Operations and Cargo Inventory.xlsx
+++ b/Processed_Data/Honolulu Harbor Pier Operations and Cargo Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPW3Y14200/Shared Documents/110_Sand_Island/40_Tasks/01_Pier_Profile/Processed_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacobs\Documents\GitHub\HDOT_-Freight_and_Statewide_LRTP__110_Sand_Island\Processed_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_4C200C9CC1336BFA2B04B2B9C3B69481E23BB623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627C6349-7792-4203-A1E7-C53744562618}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB54D8-F3C8-4F3A-A092-2C2E350E70AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Future" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,29 +701,29 @@
       <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="14" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="19.25" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>29</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="2">
         <v>34</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="11" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="45" customHeight="1">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -1551,29 +1551,29 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="14" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="19.25" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="22" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" customWidth="1"/>
+    <col min="20" max="22" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>29</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="2">
         <v>34</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="45" customHeight="1">
       <c r="A11" s="2">
         <v>60</v>
       </c>
@@ -2330,32 +2330,32 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="X11" sqref="X2:X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="22" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="12.375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="20" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>29</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="2">
         <v>34</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="45" customHeight="1">
       <c r="A11" s="2">
         <v>60</v>
       </c>
@@ -3108,26 +3108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f17e72e9-120e-45d5-9889-8d37e29b3dd6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e42a5a03-ecb2-4e90-b85d-3c6d1ed18e54" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C952F4873F6046468AF8C91A4499B81D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b608ef4c08beeee82ee1b54ced4c23d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f17e72e9-120e-45d5-9889-8d37e29b3dd6" xmlns:ns3="e42a5a03-ecb2-4e90-b85d-3c6d1ed18e54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e6e7373d1defed4123a18fcf8212d90" ns2:_="" ns3:_="">
     <xsd:import namespace="f17e72e9-120e-45d5-9889-8d37e29b3dd6"/>
@@ -3362,26 +3342,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109D2450-7777-4274-AA4C-AE08FF43F1B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f17e72e9-120e-45d5-9889-8d37e29b3dd6"/>
-    <ds:schemaRef ds:uri="e42a5a03-ecb2-4e90-b85d-3c6d1ed18e54"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3234ED8F-9EDE-48C2-B391-F85563EF42C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f17e72e9-120e-45d5-9889-8d37e29b3dd6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e42a5a03-ecb2-4e90-b85d-3c6d1ed18e54" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77C764E8-CC94-4E3E-8BCB-48D991A1779F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3398,4 +3379,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3234ED8F-9EDE-48C2-B391-F85563EF42C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109D2450-7777-4274-AA4C-AE08FF43F1B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f17e72e9-120e-45d5-9889-8d37e29b3dd6"/>
+    <ds:schemaRef ds:uri="e42a5a03-ecb2-4e90-b85d-3c6d1ed18e54"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>